--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_General.xlsx
@@ -462,25 +462,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -500,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>-1</v>
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -555,19 +555,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -590,25 +590,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -651,19 +651,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.96020793166818E-06</v>
+        <v>0.01154509432205386</v>
       </c>
       <c r="D2">
-        <v>9.713943192490859E-06</v>
+        <v>0.01490270932523186</v>
       </c>
       <c r="E2">
-        <v>0.0001840312662939603</v>
+        <v>0.02603911096776845</v>
       </c>
       <c r="F2">
-        <v>0.001650823170421756</v>
+        <v>0.04457936686465924</v>
       </c>
       <c r="G2">
-        <v>3.793137414165315E-06</v>
+        <v>0.01186659276350399</v>
       </c>
       <c r="H2">
-        <v>7.968838515504117E-06</v>
+        <v>0.0146710324656294</v>
       </c>
       <c r="I2">
-        <v>1.684057071571488E-08</v>
+        <v>0.005707448972767981</v>
       </c>
       <c r="J2">
-        <v>0.002698224396037174</v>
+        <v>0.05786035929143329</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.96020793166818E-06</v>
+        <v>0.01154509432205386</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.53752841565813E-05</v>
       </c>
       <c r="E3">
-        <v>1.531611881766537E-08</v>
+        <v>0.004145835972043654</v>
       </c>
       <c r="F3">
-        <v>2.673501018124469E-06</v>
+        <v>0.01096582899406173</v>
       </c>
       <c r="G3">
-        <v>3.819298358731515E-05</v>
+        <v>0.01517171855961874</v>
       </c>
       <c r="H3">
-        <v>3.507703301153242E-06</v>
+        <v>0.006424608013634314</v>
       </c>
       <c r="I3">
-        <v>0.01104525227857778</v>
+        <v>0.05605235302560052</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0002835440788957477</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.713943192490859E-06</v>
+        <v>0.01490270932523186</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.53752841565813E-05</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2.607781375729701E-06</v>
+        <v>0.01191105575317719</v>
       </c>
       <c r="F4">
-        <v>9.700803230483501E-06</v>
+        <v>0.01449279195874964</v>
       </c>
       <c r="G4">
-        <v>0.002562334570034741</v>
+        <v>0.04844235540346586</v>
       </c>
       <c r="H4">
-        <v>0.0008689059527011711</v>
+        <v>0.02724478927646556</v>
       </c>
       <c r="I4">
-        <v>0.06294652537175427</v>
+        <v>0.1276057816651925</v>
       </c>
       <c r="J4">
-        <v>8.881784197001252E-16</v>
+        <v>0.0004531394924620624</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001840312662939603</v>
+        <v>0.02603911096776845</v>
       </c>
       <c r="C5">
-        <v>1.531611881766537E-08</v>
+        <v>0.004145835972043654</v>
       </c>
       <c r="D5">
-        <v>2.607781375729701E-06</v>
+        <v>0.01191105575317719</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0002303394148137627</v>
+        <v>0.02716386896173795</v>
       </c>
       <c r="G5">
-        <v>0.340273396089128</v>
+        <v>0.3822585242176684</v>
       </c>
       <c r="H5">
-        <v>0.1256647161636855</v>
+        <v>0.1473921437620627</v>
       </c>
       <c r="I5">
-        <v>0.7499056937585831</v>
+        <v>0.7291296569728645</v>
       </c>
       <c r="J5">
-        <v>1.310296001921785E-06</v>
+        <v>0.002058165048457017</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001650823170421756</v>
+        <v>0.04457936686465924</v>
       </c>
       <c r="C6">
-        <v>2.673501018124469E-06</v>
+        <v>0.01096582899406173</v>
       </c>
       <c r="D6">
-        <v>9.700803230483501E-06</v>
+        <v>0.01449279195874964</v>
       </c>
       <c r="E6">
-        <v>0.0002303394148137627</v>
+        <v>0.02716386896173795</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.415533883055488E-06</v>
+        <v>0.01132409845422577</v>
       </c>
       <c r="H6">
-        <v>8.461635652601274E-06</v>
+        <v>0.01428924438434609</v>
       </c>
       <c r="I6">
-        <v>8.689117647620037E-09</v>
+        <v>0.004856849723471557</v>
       </c>
       <c r="J6">
-        <v>0.004452153177602503</v>
+        <v>0.06723664376462302</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.793137414165315E-06</v>
+        <v>0.01186659276350399</v>
       </c>
       <c r="C7">
-        <v>3.819298358731515E-05</v>
+        <v>0.01517171855961874</v>
       </c>
       <c r="D7">
-        <v>0.002562334570034741</v>
+        <v>0.04844235540346586</v>
       </c>
       <c r="E7">
-        <v>0.340273396089128</v>
+        <v>0.3822585242176684</v>
       </c>
       <c r="F7">
-        <v>3.415533883055488E-06</v>
+        <v>0.01132409845422577</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.4665391387206452</v>
+        <v>0.3247816933958081</v>
       </c>
       <c r="I7">
-        <v>0.6986200441071122</v>
+        <v>0.6276730354018851</v>
       </c>
       <c r="J7">
-        <v>1.301606356030049E-08</v>
+        <v>6.861319112849706E-05</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.968838515504117E-06</v>
+        <v>0.0146710324656294</v>
       </c>
       <c r="C8">
-        <v>3.507703301153242E-06</v>
+        <v>0.006424608013634314</v>
       </c>
       <c r="D8">
-        <v>0.0008689059527011711</v>
+        <v>0.02724478927646556</v>
       </c>
       <c r="E8">
-        <v>0.1256647161636855</v>
+        <v>0.1473921437620627</v>
       </c>
       <c r="F8">
-        <v>8.461635652601274E-06</v>
+        <v>0.01428924438434609</v>
       </c>
       <c r="G8">
-        <v>0.4665391387206452</v>
+        <v>0.3247816933958081</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.5430474563626473</v>
+        <v>0.4945344257095952</v>
       </c>
       <c r="J8">
-        <v>6.592202339561481E-10</v>
+        <v>5.892986617084262E-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.684057071571488E-08</v>
+        <v>0.005707448972767981</v>
       </c>
       <c r="C9">
-        <v>0.01104525227857778</v>
+        <v>0.05605235302560052</v>
       </c>
       <c r="D9">
-        <v>0.06294652537175427</v>
+        <v>0.1276057816651925</v>
       </c>
       <c r="E9">
-        <v>0.7499056937585831</v>
+        <v>0.7291296569728645</v>
       </c>
       <c r="F9">
-        <v>8.689117647620037E-09</v>
+        <v>0.004856849723471557</v>
       </c>
       <c r="G9">
-        <v>0.6986200441071122</v>
+        <v>0.6276730354018851</v>
       </c>
       <c r="H9">
-        <v>0.5430474563626473</v>
+        <v>0.4945344257095952</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.006870763576065197</v>
+        <v>0.001872125928099821</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.002698224396037174</v>
+        <v>0.05786035929143329</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.0002835440788957477</v>
       </c>
       <c r="D10">
-        <v>8.881784197001252E-16</v>
+        <v>0.0004531394924620624</v>
       </c>
       <c r="E10">
-        <v>1.310296001921785E-06</v>
+        <v>0.002058165048457017</v>
       </c>
       <c r="F10">
-        <v>0.004452153177602503</v>
+        <v>0.06723664376462302</v>
       </c>
       <c r="G10">
-        <v>1.301606356030049E-08</v>
+        <v>6.861319112849706E-05</v>
       </c>
       <c r="H10">
-        <v>6.592202339561481E-10</v>
+        <v>5.892986617084262E-05</v>
       </c>
       <c r="I10">
-        <v>0.006870763576065197</v>
+        <v>0.001872125928099821</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.692172801196053</v>
+        <v>2.755389408531506</v>
       </c>
       <c r="D2">
-        <v>4.439300096513044</v>
+        <v>2.641602515082342</v>
       </c>
       <c r="E2">
-        <v>3.749745853414455</v>
+        <v>2.386521374651631</v>
       </c>
       <c r="F2">
-        <v>3.15274483310556</v>
+        <v>2.13023583767374</v>
       </c>
       <c r="G2">
-        <v>4.640429510362426</v>
+        <v>2.743222543557187</v>
       </c>
       <c r="H2">
-        <v>4.482322711590981</v>
+        <v>2.648633424629903</v>
       </c>
       <c r="I2">
-        <v>5.674008297554313</v>
+        <v>3.062170519106246</v>
       </c>
       <c r="J2">
-        <v>3.005398520612553</v>
+        <v>2.001172763736767</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-4.692172801196053</v>
+        <v>-2.755389408531506</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.761551512553288</v>
+        <v>-5.303001697715424</v>
       </c>
       <c r="E3">
-        <v>-5.690595973232473</v>
+        <v>-3.198589039272657</v>
       </c>
       <c r="F3">
-        <v>-4.7132855859434</v>
+        <v>-2.778145464957434</v>
       </c>
       <c r="G3">
-        <v>-4.131032202711033</v>
+        <v>-2.633566594185818</v>
       </c>
       <c r="H3">
-        <v>-4.65681188081558</v>
+        <v>-3.011264364563983</v>
       </c>
       <c r="I3">
-        <v>-2.544560611610708</v>
+        <v>-2.017077886972527</v>
       </c>
       <c r="J3">
-        <v>-8.661992819663013</v>
+        <v>-4.309141407499304</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-4.439300096513044</v>
+        <v>-2.641602515082342</v>
       </c>
       <c r="C4">
-        <v>9.761551512553288</v>
+        <v>5.303001697715424</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-4.71843100715131</v>
+        <v>-2.741564517732352</v>
       </c>
       <c r="F4">
-        <v>-4.439595441612899</v>
+        <v>-2.654114179719328</v>
       </c>
       <c r="G4">
-        <v>-3.021179547679517</v>
+        <v>-2.089483531148561</v>
       </c>
       <c r="H4">
-        <v>-3.3368632426945</v>
+        <v>-2.365388598838679</v>
       </c>
       <c r="I4">
-        <v>-1.861010356669147</v>
+        <v>-1.583379497135391</v>
       </c>
       <c r="J4">
-        <v>-8.134323846699079</v>
+        <v>-4.117219809772613</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-3.749745853414455</v>
+        <v>-2.386521374651631</v>
       </c>
       <c r="C5">
-        <v>5.690595973232473</v>
+        <v>3.198589039272657</v>
       </c>
       <c r="D5">
-        <v>4.71843100715131</v>
+        <v>2.741564517732352</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-3.692524926758693</v>
+        <v>-2.366779661277462</v>
       </c>
       <c r="G5">
-        <v>0.9539416421498693</v>
+        <v>0.8915944096469179</v>
       </c>
       <c r="H5">
-        <v>1.532314230186962</v>
+        <v>1.501701398634208</v>
       </c>
       <c r="I5">
-        <v>0.3188247309290982</v>
+        <v>0.3507265170092793</v>
       </c>
       <c r="J5">
-        <v>-4.85877801161266</v>
+        <v>-3.493041860544351</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-3.15274483310556</v>
+        <v>-2.13023583767374</v>
       </c>
       <c r="C6">
-        <v>4.7132855859434</v>
+        <v>2.778145464957434</v>
       </c>
       <c r="D6">
-        <v>4.439595441612899</v>
+        <v>2.654114179719328</v>
       </c>
       <c r="E6">
-        <v>3.692524926758693</v>
+        <v>2.366779661277462</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.66237617308613</v>
+        <v>2.763940523228014</v>
       </c>
       <c r="H6">
-        <v>4.469325268569852</v>
+        <v>2.660451315631001</v>
       </c>
       <c r="I6">
-        <v>5.788794873329724</v>
+        <v>3.131224888989212</v>
       </c>
       <c r="J6">
-        <v>2.848709153924721</v>
+        <v>1.925144149566634</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-4.640429510362426</v>
+        <v>-2.743222543557187</v>
       </c>
       <c r="C7">
-        <v>4.131032202711033</v>
+        <v>2.633566594185818</v>
       </c>
       <c r="D7">
-        <v>3.021179547679517</v>
+        <v>2.089483531148561</v>
       </c>
       <c r="E7">
-        <v>-0.9539416421498693</v>
+        <v>-0.8915944096469179</v>
       </c>
       <c r="F7">
-        <v>-4.66237617308613</v>
+        <v>-2.763940523228014</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.7283152318894172</v>
+        <v>1.007215246506847</v>
       </c>
       <c r="I7">
-        <v>-0.3872612936153973</v>
+        <v>-0.4918848197630861</v>
       </c>
       <c r="J7">
-        <v>-5.718941627227974</v>
+        <v>-4.891045030558185</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-4.482322711590981</v>
+        <v>-2.648633424629903</v>
       </c>
       <c r="C8">
-        <v>4.65681188081558</v>
+        <v>3.011264364563983</v>
       </c>
       <c r="D8">
-        <v>3.3368632426945</v>
+        <v>2.365388598838679</v>
       </c>
       <c r="E8">
-        <v>-1.532314230186962</v>
+        <v>-1.501701398634208</v>
       </c>
       <c r="F8">
-        <v>-4.469325268569852</v>
+        <v>-2.660451315631001</v>
       </c>
       <c r="G8">
-        <v>-0.7283152318894172</v>
+        <v>-1.007215246506847</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.6083559088786871</v>
+        <v>-0.6946690932325658</v>
       </c>
       <c r="J8">
-        <v>-6.217814259608851</v>
+        <v>-4.953758001642979</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-5.674008297554313</v>
+        <v>-3.062170519106246</v>
       </c>
       <c r="C9">
-        <v>2.544560611610708</v>
+        <v>2.017077886972527</v>
       </c>
       <c r="D9">
-        <v>1.861010356669147</v>
+        <v>1.583379497135391</v>
       </c>
       <c r="E9">
-        <v>-0.3188247309290982</v>
+        <v>-0.3507265170092793</v>
       </c>
       <c r="F9">
-        <v>-5.788794873329724</v>
+        <v>-3.131224888989212</v>
       </c>
       <c r="G9">
-        <v>0.3872612936153973</v>
+        <v>0.4918848197630861</v>
       </c>
       <c r="H9">
-        <v>0.6083559088786871</v>
+        <v>0.6946690932325658</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-2.706950082447346</v>
+        <v>-3.532508465893795</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.005398520612553</v>
+        <v>-2.001172763736767</v>
       </c>
       <c r="C10">
-        <v>8.661992819663013</v>
+        <v>4.309141407499304</v>
       </c>
       <c r="D10">
-        <v>8.134323846699079</v>
+        <v>4.117219809772613</v>
       </c>
       <c r="E10">
-        <v>4.85877801161266</v>
+        <v>3.493041860544351</v>
       </c>
       <c r="F10">
-        <v>-2.848709153924721</v>
+        <v>-1.925144149566634</v>
       </c>
       <c r="G10">
-        <v>5.718941627227974</v>
+        <v>4.891045030558185</v>
       </c>
       <c r="H10">
-        <v>6.217814259608851</v>
+        <v>4.953758001642979</v>
       </c>
       <c r="I10">
-        <v>2.706950082447346</v>
+        <v>3.532508465893795</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0.5777560363502648</v>
@@ -1457,142 +1457,142 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>62.5</v>
+        <v>12.5</v>
       </c>
       <c r="F3">
-        <v>0.7883862278262983</v>
+        <v>1.187061053241883</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>1.187061053241883</v>
+        <v>0.7883862278262983</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>1.397661323590862</v>
+        <v>1.255011094666094</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.255011094666094</v>
+        <v>3.453850846367811</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.313617359090749</v>
+        <v>3.247876995903164</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.453850846367811</v>
+        <v>1.397661323590862</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.247876995903164</v>
+        <v>1.313617359090749</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_General.xlsx
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -500,13 +500,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.01154509432205386</v>
+        <v>0.003235790309408237</v>
       </c>
       <c r="D2">
-        <v>0.01490270932523186</v>
+        <v>0.004480117083945023</v>
       </c>
       <c r="E2">
-        <v>0.02603911096776845</v>
+        <v>0.004550455496198369</v>
       </c>
       <c r="F2">
-        <v>0.04457936686465924</v>
+        <v>0.004538913303668624</v>
       </c>
       <c r="G2">
-        <v>0.01186659276350399</v>
+        <v>0.004548464011675302</v>
       </c>
       <c r="H2">
-        <v>0.0146710324656294</v>
+        <v>0.003339677236668281</v>
       </c>
       <c r="I2">
-        <v>0.005707448972767981</v>
+        <v>0.00100612743166284</v>
       </c>
       <c r="J2">
-        <v>0.05786035929143329</v>
+        <v>0.006142874098099327</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01154509432205386</v>
+        <v>0.003235790309408237</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.53752841565813E-05</v>
+        <v>2.580518834172096E-07</v>
       </c>
       <c r="E3">
-        <v>0.004145835972043654</v>
+        <v>1.277512897690514E-07</v>
       </c>
       <c r="F3">
-        <v>0.01096582899406173</v>
+        <v>0.003313223553378819</v>
       </c>
       <c r="G3">
-        <v>0.01517171855961874</v>
+        <v>0.0009710538555089965</v>
       </c>
       <c r="H3">
-        <v>0.006424608013634314</v>
+        <v>0.003619166035681687</v>
       </c>
       <c r="I3">
-        <v>0.05605235302560052</v>
+        <v>0.03721799518198954</v>
       </c>
       <c r="J3">
-        <v>0.0002835440788957477</v>
+        <v>0.0008074560947588516</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01490270932523186</v>
+        <v>0.004480117083945023</v>
       </c>
       <c r="C4">
-        <v>2.53752841565813E-05</v>
+        <v>2.580518834172096E-07</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01191105575317719</v>
+        <v>0.002732923137286125</v>
       </c>
       <c r="F4">
-        <v>0.01449279195874964</v>
+        <v>0.004724999704033506</v>
       </c>
       <c r="G4">
-        <v>0.04844235540346586</v>
+        <v>0.004952475626397446</v>
       </c>
       <c r="H4">
-        <v>0.02724478927646556</v>
+        <v>0.01184715692003913</v>
       </c>
       <c r="I4">
-        <v>0.1276057816651925</v>
+        <v>0.09320957583044009</v>
       </c>
       <c r="J4">
-        <v>0.0004531394924620624</v>
+        <v>0.002312329736744001</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02603911096776845</v>
+        <v>0.004550455496198369</v>
       </c>
       <c r="C5">
-        <v>0.004145835972043654</v>
+        <v>1.277512897690514E-07</v>
       </c>
       <c r="D5">
-        <v>0.01191105575317719</v>
+        <v>0.002732923137286125</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.02716386896173795</v>
+        <v>0.004805132945513435</v>
       </c>
       <c r="G5">
-        <v>0.3822585242176684</v>
+        <v>0.005359829728874388</v>
       </c>
       <c r="H5">
-        <v>0.1473921437620627</v>
+        <v>0.01244033896707686</v>
       </c>
       <c r="I5">
-        <v>0.7291296569728645</v>
+        <v>0.09563134026039188</v>
       </c>
       <c r="J5">
-        <v>0.002058165048457017</v>
+        <v>0.002450937434986589</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04457936686465924</v>
+        <v>0.004538913303668624</v>
       </c>
       <c r="C6">
-        <v>0.01096582899406173</v>
+        <v>0.003313223553378819</v>
       </c>
       <c r="D6">
-        <v>0.01449279195874964</v>
+        <v>0.004724999704033506</v>
       </c>
       <c r="E6">
-        <v>0.02716386896173795</v>
+        <v>0.004805132945513435</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01132409845422577</v>
+        <v>0.004877572414575981</v>
       </c>
       <c r="H6">
-        <v>0.01428924438434609</v>
+        <v>0.003427092845428525</v>
       </c>
       <c r="I6">
-        <v>0.004856849723471557</v>
+        <v>0.0008478909570170945</v>
       </c>
       <c r="J6">
-        <v>0.06723664376462302</v>
+        <v>0.006937257722793522</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01186659276350399</v>
+        <v>0.004548464011675302</v>
       </c>
       <c r="C7">
-        <v>0.01517171855961874</v>
+        <v>0.0009710538555089965</v>
       </c>
       <c r="D7">
-        <v>0.04844235540346586</v>
+        <v>0.004952475626397446</v>
       </c>
       <c r="E7">
-        <v>0.3822585242176684</v>
+        <v>0.005359829728874388</v>
       </c>
       <c r="F7">
-        <v>0.01132409845422577</v>
+        <v>0.004877572414575981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.3247816933958081</v>
+        <v>0.1106535052722082</v>
       </c>
       <c r="I7">
-        <v>0.6276730354018851</v>
+        <v>0.7598585373169526</v>
       </c>
       <c r="J7">
-        <v>6.861319112849706E-05</v>
+        <v>0.001650347941707819</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0146710324656294</v>
+        <v>0.003339677236668281</v>
       </c>
       <c r="C8">
-        <v>0.006424608013634314</v>
+        <v>0.003619166035681687</v>
       </c>
       <c r="D8">
-        <v>0.02724478927646556</v>
+        <v>0.01184715692003913</v>
       </c>
       <c r="E8">
-        <v>0.1473921437620627</v>
+        <v>0.01244033896707686</v>
       </c>
       <c r="F8">
-        <v>0.01428924438434609</v>
+        <v>0.003427092845428525</v>
       </c>
       <c r="G8">
-        <v>0.3247816933958081</v>
+        <v>0.1106535052722082</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.4945344257095952</v>
+        <v>0.4578562964636461</v>
       </c>
       <c r="J8">
-        <v>5.892986617084262E-05</v>
+        <v>0.008662082137471883</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.005707448972767981</v>
+        <v>0.00100612743166284</v>
       </c>
       <c r="C9">
-        <v>0.05605235302560052</v>
+        <v>0.03721799518198954</v>
       </c>
       <c r="D9">
-        <v>0.1276057816651925</v>
+        <v>0.09320957583044009</v>
       </c>
       <c r="E9">
-        <v>0.7291296569728645</v>
+        <v>0.09563134026039188</v>
       </c>
       <c r="F9">
-        <v>0.004856849723471557</v>
+        <v>0.0008478909570170945</v>
       </c>
       <c r="G9">
-        <v>0.6276730354018851</v>
+        <v>0.7598585373169526</v>
       </c>
       <c r="H9">
-        <v>0.4945344257095952</v>
+        <v>0.4578562964636461</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.001872125928099821</v>
+        <v>0.08924665545736499</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.05786035929143329</v>
+        <v>0.006142874098099327</v>
       </c>
       <c r="C10">
-        <v>0.0002835440788957477</v>
+        <v>0.0008074560947588516</v>
       </c>
       <c r="D10">
-        <v>0.0004531394924620624</v>
+        <v>0.002312329736744001</v>
       </c>
       <c r="E10">
-        <v>0.002058165048457017</v>
+        <v>0.002450937434986589</v>
       </c>
       <c r="F10">
-        <v>0.06723664376462302</v>
+        <v>0.006937257722793522</v>
       </c>
       <c r="G10">
-        <v>6.861319112849706E-05</v>
+        <v>0.001650347941707819</v>
       </c>
       <c r="H10">
-        <v>5.892986617084262E-05</v>
+        <v>0.008662082137471883</v>
       </c>
       <c r="I10">
-        <v>0.001872125928099821</v>
+        <v>0.08924665545736499</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.755389408531506</v>
+        <v>3.168189375588562</v>
       </c>
       <c r="D2">
-        <v>2.641602515082342</v>
+        <v>3.044255062600652</v>
       </c>
       <c r="E2">
-        <v>2.386521374651631</v>
+        <v>3.038268330071167</v>
       </c>
       <c r="F2">
-        <v>2.13023583767374</v>
+        <v>3.039244694707983</v>
       </c>
       <c r="G2">
-        <v>2.743222543557187</v>
+        <v>3.038436624257113</v>
       </c>
       <c r="H2">
-        <v>2.648633424629903</v>
+        <v>3.156242025165104</v>
       </c>
       <c r="I2">
-        <v>3.062170519106246</v>
+        <v>3.598515692219772</v>
       </c>
       <c r="J2">
-        <v>2.001172763736767</v>
+        <v>2.921927703523791</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-2.755389408531506</v>
+        <v>-3.168189375588562</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-5.303001697715424</v>
+        <v>-6.404697426280737</v>
       </c>
       <c r="E3">
-        <v>-3.198589039272657</v>
+        <v>-6.642304364826632</v>
       </c>
       <c r="F3">
-        <v>-2.778145464957434</v>
+        <v>-3.159250389067575</v>
       </c>
       <c r="G3">
-        <v>-2.633566594185818</v>
+        <v>-3.611288520995731</v>
       </c>
       <c r="H3">
-        <v>-3.011264364563983</v>
+        <v>-3.125772483468592</v>
       </c>
       <c r="I3">
-        <v>-2.017077886972527</v>
+        <v>-2.168395308058892</v>
       </c>
       <c r="J3">
-        <v>-4.309141407499304</v>
+        <v>-3.677463086822116</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.641602515082342</v>
+        <v>-3.044255062600652</v>
       </c>
       <c r="C4">
-        <v>5.303001697715424</v>
+        <v>6.404697426280737</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.741564517732352</v>
+        <v>-3.231739011332822</v>
       </c>
       <c r="F4">
-        <v>-2.654114179719328</v>
+        <v>-3.023782137079866</v>
       </c>
       <c r="G4">
-        <v>-2.089483531148561</v>
+        <v>-3.005643804078514</v>
       </c>
       <c r="H4">
-        <v>-2.365388598838679</v>
+        <v>-2.659563958781657</v>
       </c>
       <c r="I4">
-        <v>-1.583379497135391</v>
+        <v>-1.727189019243887</v>
       </c>
       <c r="J4">
-        <v>-4.117219809772613</v>
+        <v>-3.294130224544098</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-2.386521374651631</v>
+        <v>-3.038268330071167</v>
       </c>
       <c r="C5">
-        <v>3.198589039272657</v>
+        <v>6.642304364826632</v>
       </c>
       <c r="D5">
-        <v>2.741564517732352</v>
+        <v>3.231739011332822</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-2.366779661277462</v>
+        <v>-3.017300196027608</v>
       </c>
       <c r="G5">
-        <v>0.8915944096469179</v>
+        <v>-2.975043997118151</v>
       </c>
       <c r="H5">
-        <v>1.501701398634208</v>
+        <v>-2.639565945513766</v>
       </c>
       <c r="I5">
-        <v>0.3507265170092793</v>
+        <v>-1.714009423067451</v>
       </c>
       <c r="J5">
-        <v>-3.493041860544351</v>
+        <v>-3.27244935315186</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-2.13023583767374</v>
+        <v>-3.039244694707983</v>
       </c>
       <c r="C6">
-        <v>2.778145464957434</v>
+        <v>3.159250389067575</v>
       </c>
       <c r="D6">
-        <v>2.654114179719328</v>
+        <v>3.023782137079866</v>
       </c>
       <c r="E6">
-        <v>2.366779661277462</v>
+        <v>3.017300196027608</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.763940523228014</v>
+        <v>3.011527896352362</v>
       </c>
       <c r="H6">
-        <v>2.660451315631001</v>
+        <v>3.146459595729955</v>
       </c>
       <c r="I6">
-        <v>3.131224888989212</v>
+        <v>3.659974926218392</v>
       </c>
       <c r="J6">
-        <v>1.925144149566634</v>
+        <v>2.874189723877391</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.743222543557187</v>
+        <v>-3.038436624257113</v>
       </c>
       <c r="C7">
-        <v>2.633566594185818</v>
+        <v>3.611288520995731</v>
       </c>
       <c r="D7">
-        <v>2.089483531148561</v>
+        <v>3.005643804078514</v>
       </c>
       <c r="E7">
-        <v>-0.8915944096469179</v>
+        <v>2.975043997118151</v>
       </c>
       <c r="F7">
-        <v>-2.763940523228014</v>
+        <v>-3.011527896352362</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.007215246506847</v>
+        <v>-1.63795888008718</v>
       </c>
       <c r="I7">
-        <v>-0.4918848197630861</v>
+        <v>-0.3081363305326057</v>
       </c>
       <c r="J7">
-        <v>-4.891045030558185</v>
+        <v>-3.418685421788902</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.648633424629903</v>
+        <v>-3.156242025165104</v>
       </c>
       <c r="C8">
-        <v>3.011264364563983</v>
+        <v>3.125772483468592</v>
       </c>
       <c r="D8">
-        <v>2.365388598838679</v>
+        <v>2.659563958781657</v>
       </c>
       <c r="E8">
-        <v>-1.501701398634208</v>
+        <v>2.639565945513766</v>
       </c>
       <c r="F8">
-        <v>-2.660451315631001</v>
+        <v>-3.146459595729955</v>
       </c>
       <c r="G8">
-        <v>-1.007215246506847</v>
+        <v>1.63795888008718</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.6946690932325658</v>
+        <v>0.7509377566969657</v>
       </c>
       <c r="J8">
-        <v>-4.953758001642979</v>
+        <v>-2.786080801357415</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.062170519106246</v>
+        <v>-3.598515692219772</v>
       </c>
       <c r="C9">
-        <v>2.017077886972527</v>
+        <v>2.168395308058892</v>
       </c>
       <c r="D9">
-        <v>1.583379497135391</v>
+        <v>1.727189019243887</v>
       </c>
       <c r="E9">
-        <v>-0.3507265170092793</v>
+        <v>1.714009423067451</v>
       </c>
       <c r="F9">
-        <v>-3.131224888989212</v>
+        <v>-3.659974926218392</v>
       </c>
       <c r="G9">
-        <v>0.4918848197630861</v>
+        <v>0.3081363305326057</v>
       </c>
       <c r="H9">
-        <v>0.6946690932325658</v>
+        <v>-0.7509377566969657</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-3.532508465893795</v>
+        <v>-1.749388646363153</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-2.001172763736767</v>
+        <v>-2.921927703523791</v>
       </c>
       <c r="C10">
-        <v>4.309141407499304</v>
+        <v>3.677463086822116</v>
       </c>
       <c r="D10">
-        <v>4.117219809772613</v>
+        <v>3.294130224544098</v>
       </c>
       <c r="E10">
-        <v>3.493041860544351</v>
+        <v>3.27244935315186</v>
       </c>
       <c r="F10">
-        <v>-1.925144149566634</v>
+        <v>-2.874189723877391</v>
       </c>
       <c r="G10">
-        <v>4.891045030558185</v>
+        <v>3.418685421788902</v>
       </c>
       <c r="H10">
-        <v>4.953758001642979</v>
+        <v>2.786080801357415</v>
       </c>
       <c r="I10">
-        <v>3.532508465893795</v>
+        <v>1.749388646363153</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,99 +1440,99 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>0.5777560363502648</v>
+        <v>0.5726349796273064</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>1.187061053241883</v>
+        <v>1.575631216401205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7883862278262983</v>
+        <v>4.40921118037155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>7</v>
       </c>
       <c r="E5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.255011094666094</v>
+        <v>0.8322747775657097</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.453850846367811</v>
+        <v>0.8282157915461154</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1543,41 +1543,41 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.247876995903164</v>
+        <v>4.103986298999253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.397661323590862</v>
+        <v>1.497911852313694</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.313617359090749</v>
+        <v>1.695747575946762</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.953213036957726</v>
+        <v>1.918298195058024</v>
       </c>
     </row>
   </sheetData>
